--- a/data/trans_dic/P55$amigo-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P55$amigo-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.01866705564844539</v>
+        <v>0.0186670556484454</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.0422553326281171</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.006455266113714071</v>
+        <v>0.006413450848091188</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.008485670032458948</v>
+        <v>0.006998449740986985</v>
       </c>
     </row>
     <row r="6">
@@ -747,33 +747,33 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.25820285098252</v>
+        <v>0.3061716051167553</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.06320867248604622</v>
+        <v>0.05920028505851128</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1505518212339563</v>
+        <v>0.1296338770410377</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.08309887283829187</v>
+        <v>0.09071747510569861</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05840102438145464</v>
+        <v>0.05969600553254657</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08116381730950976</v>
+        <v>0.07350129158802833</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09730233338623086</v>
+        <v>0.1164109714067662</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07030967319570103</v>
+        <v>0.08309473014136777</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04539787491542954</v>
+        <v>0.0425683823109736</v>
       </c>
     </row>
     <row r="7">
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05728504538236806</v>
+        <v>0.05728504538236805</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01399016798847957</v>
@@ -809,7 +809,7 @@
         <v>0.03183876426759928</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.05351948369960882</v>
+        <v>0.05351948369960883</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.01688497941429862</v>
@@ -837,7 +837,7 @@
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.01748364433325759</v>
+        <v>0.01729583501905044</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02509854273044466</v>
+        <v>0.02687039844292574</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03082543188512299</v>
+        <v>0.02968670214496512</v>
       </c>
     </row>
     <row r="9">
@@ -872,36 +872,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1051039765247125</v>
+        <v>0.1035668172344055</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.1512700707794937</v>
+        <v>0.1451412109650208</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07255442861075259</v>
+        <v>0.06386952318883883</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06266389391630543</v>
+        <v>0.06619647136660423</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1103160389140255</v>
+        <v>0.09760906535464375</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09821232099853572</v>
+        <v>0.09968449862052582</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05892022997181584</v>
+        <v>0.05950343401077651</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04113409786809616</v>
+        <v>0.05526147127333936</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06233560593916525</v>
+        <v>0.07402241308022096</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08859915412926692</v>
+        <v>0.08868618596356866</v>
       </c>
     </row>
     <row r="10">
@@ -925,7 +925,7 @@
         <v>0.0382700609901182</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07923276184627638</v>
+        <v>0.07923276184627639</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.04097498785892045</v>
@@ -937,7 +937,7 @@
         <v>0.022348302556159</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.05738876900221216</v>
+        <v>0.05738876900221217</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03928970691897966</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01640480322924448</v>
+        <v>0.01724609647312085</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01988113190869563</v>
+        <v>0.02016189510105538</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01086878547010508</v>
+        <v>0.01096044676811237</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01229826353517965</v>
+        <v>0.01172639752971216</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03394784266427411</v>
+        <v>0.02913830635352985</v>
       </c>
     </row>
     <row r="12">
@@ -1004,40 +1004,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1922098117876725</v>
+        <v>0.1904857738561024</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2002594961467534</v>
+        <v>0.1643739467265323</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2112734500032232</v>
+        <v>0.164736143765336</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1957711303539585</v>
+        <v>0.2229651512856133</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1390487540225694</v>
+        <v>0.1359856657184125</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1232171740883801</v>
+        <v>0.1408572926913745</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1472659872436557</v>
+        <v>0.1151855632917209</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.117484540086857</v>
+        <v>0.1125203265268109</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1125266472766864</v>
+        <v>0.1097519648741331</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1057045456973954</v>
+        <v>0.1046526847756376</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08639094067271634</v>
+        <v>0.08904746608339781</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1236591761418999</v>
+        <v>0.1224305912963827</v>
       </c>
     </row>
     <row r="13">
@@ -1085,7 +1085,7 @@
         <v>0.02237961586007785</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06328777187463677</v>
+        <v>0.06328777187463674</v>
       </c>
     </row>
     <row r="14">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.0115565185778821</v>
+        <v>0.01157547787942506</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0396915743117307</v>
+        <v>0.03842738714755899</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03629227007610056</v>
+        <v>0.03728609981829097</v>
       </c>
     </row>
     <row r="15">
@@ -1135,33 +1135,33 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.1341940825328923</v>
+        <v>0.1495233283304863</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.1106341360506703</v>
+        <v>0.1091208519943847</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06528663824554155</v>
+        <v>0.08416483130392015</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.1005174661712395</v>
+        <v>0.0934521181401043</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1285661893920692</v>
+        <v>0.1287253996760236</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0491764330043309</v>
+        <v>0.04884770494928118</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0445128743270474</v>
+        <v>0.04677469710520236</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07856357038605565</v>
+        <v>0.06917060762749982</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1041999550065906</v>
+        <v>0.1099186544884652</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1197,7 @@
         <v>0.02703546515635229</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.05284751924604276</v>
+        <v>0.05284751924604277</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.02082578960281061</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.007287621290187783</v>
+        <v>0.007113892233373203</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02193996986406976</v>
+        <v>0.02322330016561047</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.009226009984120122</v>
+        <v>0.009072933232356428</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.003569326883002786</v>
+        <v>0.00352408567753906</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.009384709233459113</v>
+        <v>0.009245450066440087</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03671899213613122</v>
+        <v>0.0357756019791508</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.00958602821989999</v>
+        <v>0.009108090189088055</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.007507876268307861</v>
+        <v>0.00715843417598106</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.009160072483910379</v>
+        <v>0.00921212496459263</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03688981775041989</v>
+        <v>0.03632683435669062</v>
       </c>
     </row>
     <row r="18">
@@ -1264,40 +1264,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05156814449601629</v>
+        <v>0.04458187618541827</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08767028858283824</v>
+        <v>0.09237633340162808</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03425978001441873</v>
+        <v>0.03380395760645717</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07308459109463471</v>
+        <v>0.07632530372055045</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05010127700810785</v>
+        <v>0.05029425240250963</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03103304459240482</v>
+        <v>0.0306026047777139</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05613101291122055</v>
+        <v>0.05399922735104487</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.07452073276881319</v>
+        <v>0.07377283023099183</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03891674917973339</v>
+        <v>0.03986961977275038</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04168666720652514</v>
+        <v>0.03946599752150104</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0413196162386994</v>
+        <v>0.04269545784466733</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06639054004749415</v>
+        <v>0.06968325988480063</v>
       </c>
     </row>
     <row r="19">
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1170</v>
+        <v>965</v>
       </c>
     </row>
     <row r="7">
@@ -1607,33 +1607,33 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>8401</v>
+        <v>9962</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>3350</v>
+        <v>3137</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6743</v>
+        <v>5806</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>4997</v>
+        <v>5456</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>4957</v>
+        <v>5067</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>6384</v>
+        <v>5782</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>9102</v>
+        <v>10889</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>6181</v>
+        <v>7305</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>6259</v>
+        <v>5869</v>
       </c>
     </row>
     <row r="8">
@@ -1741,7 +1741,7 @@
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2375</v>
+        <v>2543</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>4207</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="11">
@@ -1776,36 +1776,36 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5047</v>
+        <v>4973</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>6331</v>
+        <v>6075</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4910</v>
+        <v>4323</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>5536</v>
+        <v>5848</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8477</v>
+        <v>7501</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>9295</v>
+        <v>9434</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>6817</v>
+        <v>6885</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>5512</v>
+        <v>7405</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>7340</v>
+        <v>8716</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>12093</v>
+        <v>12105</v>
       </c>
     </row>
     <row r="12">
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1290</v>
+        <v>1308</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>982</v>
+        <v>936</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>3212</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="15">
@@ -1952,40 +1952,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4147</v>
+        <v>4110</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5595</v>
+        <v>4593</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4915</v>
+        <v>3832</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5816</v>
+        <v>6624</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6461</v>
+        <v>6318</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6397</v>
+        <v>7313</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7595</v>
+        <v>5940</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7625</v>
+        <v>7302</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7656</v>
+        <v>7468</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>8441</v>
+        <v>8357</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>6465</v>
+        <v>6664</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>11699</v>
+        <v>11583</v>
       </c>
     </row>
     <row r="16">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4478</v>
+        <v>4336</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>5712</v>
+        <v>5869</v>
       </c>
     </row>
     <row r="19">
@@ -2127,33 +2127,33 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>5372</v>
+        <v>5986</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>4930</v>
+        <v>4863</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4700</v>
+        <v>6059</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>7922</v>
+        <v>7365</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>14506</v>
+        <v>14524</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4677</v>
+        <v>4645</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>5266</v>
+        <v>5534</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>8510</v>
+        <v>7492</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>16401</v>
+        <v>17301</v>
       </c>
     </row>
     <row r="20">
@@ -2259,37 +2259,37 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1065</v>
+        <v>1040</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3711</v>
+        <v>3928</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2130</v>
+        <v>2095</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2509</v>
+        <v>2472</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>13118</v>
+        <v>12781</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3427</v>
+        <v>3256</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3196</v>
+        <v>3047</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3562</v>
+        <v>3582</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>19417</v>
+        <v>19121</v>
       </c>
     </row>
     <row r="23">
@@ -2300,40 +2300,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6527</v>
+        <v>5643</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>12815</v>
+        <v>13502</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4161</v>
+        <v>4106</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>12360</v>
+        <v>12908</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>11569</v>
+        <v>11614</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>8675</v>
+        <v>8554</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>15007</v>
+        <v>14437</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>26622</v>
+        <v>26355</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>13913</v>
+        <v>14253</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>17746</v>
+        <v>16801</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>16066</v>
+        <v>16601</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>34945</v>
+        <v>36679</v>
       </c>
     </row>
     <row r="24">
